--- a/Rodríguez Román Leticia 20212.xlsx
+++ b/Rodríguez Román Leticia 20212.xlsx
@@ -4563,7 +4563,7 @@
         <v>490</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4659,7 +4659,7 @@
         <v>493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4851,7 +4851,7 @@
         <v>498</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/Rodríguez Román Leticia 20212.xlsx
+++ b/Rodríguez Román Leticia 20212.xlsx
@@ -4030,7 +4030,7 @@
         <v>478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
